--- a/docs/testing/2021-11-27-01/T000021图层面板测试.xlsx
+++ b/docs/testing/2021-11-27-01/T000021图层面板测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE7DB4D-84B6-438E-8DD4-23892701E2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B1516-B9C2-4ADF-AE6D-B884AD074031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>编号</t>
   </si>
@@ -254,6 +254,66 @@
   </si>
   <si>
     <t>显示的是像素填充的功率值</t>
+  </si>
+  <si>
+    <t>点击【图层】面板上的【删除图层】按钮</t>
+  </si>
+  <si>
+    <t>弹出【是否删除图层】的确认对话框</t>
+  </si>
+  <si>
+    <t>【删除】按钮不可用</t>
+  </si>
+  <si>
+    <t>接19，点击【确定】</t>
+  </si>
+  <si>
+    <t>删除图层和其包含的所有图元</t>
+  </si>
+  <si>
+    <t>接19，点击【取消】</t>
+  </si>
+  <si>
+    <t>无变化</t>
+  </si>
+  <si>
+    <t>接2，导入一个有效的svg文件</t>
+  </si>
+  <si>
+    <t>提示是否合并</t>
+  </si>
+  <si>
+    <t>选择【合并】</t>
+  </si>
+  <si>
+    <t>在新图层中导入svg中的图元</t>
+  </si>
+  <si>
+    <t>关闭当前文档，创建一个新的空文档</t>
+  </si>
+  <si>
+    <t>新建16个矩形图元，每个图元在一个单独的图层中</t>
+  </si>
+  <si>
+    <t>导入一个有效的svg文件</t>
+  </si>
+  <si>
+    <t>在第16个图层中导入svg图元</t>
+  </si>
+  <si>
+    <t>新建一个空白文档</t>
+  </si>
+  <si>
+    <t>创建一个矩形图元</t>
+  </si>
+  <si>
+    <t>自动生成的图层应为【切割】类型</t>
+  </si>
+  <si>
+    <t>创建一个位图图元</t>
+  </si>
+  <si>
+    <t>自动生成的图元应为【雕刻】类型</t>
   </si>
 </sst>
 </file>
@@ -639,7 +699,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3325,27 +3455,27 @@
     <mergeCell ref="V5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:AO8">
-    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="Suspend">
+    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="10" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33:AO42">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM33)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3381,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="AA71" sqref="AA71:AL72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="AM95" sqref="AM95:AO96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6501,7 +6631,9 @@
         <v>19</v>
       </c>
       <c r="B73" s="17"/>
-      <c r="C73" s="31"/>
+      <c r="C73" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
@@ -6513,7 +6645,9 @@
       <c r="L73" s="32"/>
       <c r="M73" s="32"/>
       <c r="N73" s="33"/>
-      <c r="O73" s="31"/>
+      <c r="O73" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="P73" s="32"/>
       <c r="Q73" s="32"/>
       <c r="R73" s="32"/>
@@ -6525,19 +6659,23 @@
       <c r="X73" s="32"/>
       <c r="Y73" s="32"/>
       <c r="Z73" s="33"/>
-      <c r="AA73" s="31"/>
-      <c r="AB73" s="32"/>
-      <c r="AC73" s="32"/>
-      <c r="AD73" s="32"/>
-      <c r="AE73" s="32"/>
-      <c r="AF73" s="32"/>
-      <c r="AG73" s="32"/>
-      <c r="AH73" s="32"/>
-      <c r="AI73" s="32"/>
-      <c r="AJ73" s="32"/>
-      <c r="AK73" s="32"/>
-      <c r="AL73" s="33"/>
-      <c r="AM73" s="37"/>
+      <c r="AA73" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB73" s="43"/>
+      <c r="AC73" s="43"/>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+      <c r="AF73" s="43"/>
+      <c r="AG73" s="43"/>
+      <c r="AH73" s="43"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
+      <c r="AK73" s="43"/>
+      <c r="AL73" s="44"/>
+      <c r="AM73" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN73" s="38"/>
       <c r="AO73" s="38"/>
     </row>
@@ -6568,18 +6706,18 @@
       <c r="X74" s="35"/>
       <c r="Y74" s="35"/>
       <c r="Z74" s="36"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="35"/>
-      <c r="AC74" s="35"/>
-      <c r="AD74" s="35"/>
-      <c r="AE74" s="35"/>
-      <c r="AF74" s="35"/>
-      <c r="AG74" s="35"/>
-      <c r="AH74" s="35"/>
-      <c r="AI74" s="35"/>
-      <c r="AJ74" s="35"/>
-      <c r="AK74" s="35"/>
-      <c r="AL74" s="36"/>
+      <c r="AA74" s="45"/>
+      <c r="AB74" s="46"/>
+      <c r="AC74" s="46"/>
+      <c r="AD74" s="46"/>
+      <c r="AE74" s="46"/>
+      <c r="AF74" s="46"/>
+      <c r="AG74" s="46"/>
+      <c r="AH74" s="46"/>
+      <c r="AI74" s="46"/>
+      <c r="AJ74" s="46"/>
+      <c r="AK74" s="46"/>
+      <c r="AL74" s="47"/>
       <c r="AM74" s="39"/>
       <c r="AN74" s="40"/>
       <c r="AO74" s="40"/>
@@ -6589,7 +6727,9 @@
         <v>20</v>
       </c>
       <c r="B75" s="17"/>
-      <c r="C75" s="31"/>
+      <c r="C75" s="31" t="s">
+        <v>76</v>
+      </c>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
@@ -6601,7 +6741,9 @@
       <c r="L75" s="32"/>
       <c r="M75" s="32"/>
       <c r="N75" s="33"/>
-      <c r="O75" s="31"/>
+      <c r="O75" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="P75" s="32"/>
       <c r="Q75" s="32"/>
       <c r="R75" s="32"/>
@@ -6625,7 +6767,9 @@
       <c r="AJ75" s="32"/>
       <c r="AK75" s="32"/>
       <c r="AL75" s="33"/>
-      <c r="AM75" s="37"/>
+      <c r="AM75" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN75" s="38"/>
       <c r="AO75" s="38"/>
     </row>
@@ -6677,7 +6821,9 @@
         <v>21</v>
       </c>
       <c r="B77" s="17"/>
-      <c r="C77" s="31"/>
+      <c r="C77" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
@@ -6689,7 +6835,9 @@
       <c r="L77" s="32"/>
       <c r="M77" s="32"/>
       <c r="N77" s="33"/>
-      <c r="O77" s="31"/>
+      <c r="O77" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="P77" s="32"/>
       <c r="Q77" s="32"/>
       <c r="R77" s="32"/>
@@ -6713,7 +6861,9 @@
       <c r="AJ77" s="32"/>
       <c r="AK77" s="32"/>
       <c r="AL77" s="33"/>
-      <c r="AM77" s="37"/>
+      <c r="AM77" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN77" s="38"/>
       <c r="AO77" s="38"/>
     </row>
@@ -6765,7 +6915,9 @@
         <v>22</v>
       </c>
       <c r="B79" s="17"/>
-      <c r="C79" s="31"/>
+      <c r="C79" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
@@ -6777,7 +6929,9 @@
       <c r="L79" s="32"/>
       <c r="M79" s="32"/>
       <c r="N79" s="33"/>
-      <c r="O79" s="31"/>
+      <c r="O79" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="P79" s="32"/>
       <c r="Q79" s="32"/>
       <c r="R79" s="32"/>
@@ -6801,7 +6955,9 @@
       <c r="AJ79" s="32"/>
       <c r="AK79" s="32"/>
       <c r="AL79" s="33"/>
-      <c r="AM79" s="37"/>
+      <c r="AM79" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN79" s="38"/>
       <c r="AO79" s="38"/>
     </row>
@@ -6853,7 +7009,9 @@
         <v>23</v>
       </c>
       <c r="B81" s="17"/>
-      <c r="C81" s="31"/>
+      <c r="C81" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
@@ -6865,7 +7023,9 @@
       <c r="L81" s="32"/>
       <c r="M81" s="32"/>
       <c r="N81" s="33"/>
-      <c r="O81" s="31"/>
+      <c r="O81" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="P81" s="32"/>
       <c r="Q81" s="32"/>
       <c r="R81" s="32"/>
@@ -6889,7 +7049,9 @@
       <c r="AJ81" s="32"/>
       <c r="AK81" s="32"/>
       <c r="AL81" s="33"/>
-      <c r="AM81" s="37"/>
+      <c r="AM81" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN81" s="38"/>
       <c r="AO81" s="38"/>
     </row>
@@ -6941,7 +7103,9 @@
         <v>24</v>
       </c>
       <c r="B83" s="17"/>
-      <c r="C83" s="31"/>
+      <c r="C83" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
@@ -6977,7 +7141,9 @@
       <c r="AJ83" s="32"/>
       <c r="AK83" s="32"/>
       <c r="AL83" s="33"/>
-      <c r="AM83" s="37"/>
+      <c r="AM83" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN83" s="38"/>
       <c r="AO83" s="38"/>
     </row>
@@ -7029,7 +7195,9 @@
         <v>25</v>
       </c>
       <c r="B85" s="17"/>
-      <c r="C85" s="31"/>
+      <c r="C85" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
@@ -7065,7 +7233,9 @@
       <c r="AJ85" s="32"/>
       <c r="AK85" s="32"/>
       <c r="AL85" s="33"/>
-      <c r="AM85" s="37"/>
+      <c r="AM85" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN85" s="38"/>
       <c r="AO85" s="38"/>
     </row>
@@ -7117,7 +7287,9 @@
         <v>26</v>
       </c>
       <c r="B87" s="17"/>
-      <c r="C87" s="31"/>
+      <c r="C87" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
@@ -7129,7 +7301,9 @@
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
       <c r="N87" s="33"/>
-      <c r="O87" s="31"/>
+      <c r="O87" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="P87" s="32"/>
       <c r="Q87" s="32"/>
       <c r="R87" s="32"/>
@@ -7153,7 +7327,9 @@
       <c r="AJ87" s="32"/>
       <c r="AK87" s="32"/>
       <c r="AL87" s="33"/>
-      <c r="AM87" s="37"/>
+      <c r="AM87" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN87" s="38"/>
       <c r="AO87" s="38"/>
     </row>
@@ -7205,7 +7381,9 @@
         <v>27</v>
       </c>
       <c r="B89" s="17"/>
-      <c r="C89" s="31"/>
+      <c r="C89" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="D89" s="32"/>
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
@@ -7241,7 +7419,9 @@
       <c r="AJ89" s="32"/>
       <c r="AK89" s="32"/>
       <c r="AL89" s="33"/>
-      <c r="AM89" s="37"/>
+      <c r="AM89" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN89" s="38"/>
       <c r="AO89" s="38"/>
     </row>
@@ -7293,7 +7473,9 @@
         <v>28</v>
       </c>
       <c r="B91" s="17"/>
-      <c r="C91" s="31"/>
+      <c r="C91" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
@@ -7305,7 +7487,9 @@
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
       <c r="N91" s="33"/>
-      <c r="O91" s="31"/>
+      <c r="O91" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="P91" s="32"/>
       <c r="Q91" s="32"/>
       <c r="R91" s="32"/>
@@ -7329,7 +7513,9 @@
       <c r="AJ91" s="32"/>
       <c r="AK91" s="32"/>
       <c r="AL91" s="33"/>
-      <c r="AM91" s="37"/>
+      <c r="AM91" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN91" s="38"/>
       <c r="AO91" s="38"/>
     </row>
@@ -7381,7 +7567,9 @@
         <v>29</v>
       </c>
       <c r="B93" s="17"/>
-      <c r="C93" s="31"/>
+      <c r="C93" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
       <c r="F93" s="32"/>
@@ -7417,7 +7605,9 @@
       <c r="AJ93" s="32"/>
       <c r="AK93" s="32"/>
       <c r="AL93" s="33"/>
-      <c r="AM93" s="37"/>
+      <c r="AM93" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN93" s="38"/>
       <c r="AO93" s="38"/>
     </row>
@@ -7469,7 +7659,9 @@
         <v>30</v>
       </c>
       <c r="B95" s="17"/>
-      <c r="C95" s="31"/>
+      <c r="C95" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="D95" s="32"/>
       <c r="E95" s="32"/>
       <c r="F95" s="32"/>
@@ -7481,7 +7673,9 @@
       <c r="L95" s="32"/>
       <c r="M95" s="32"/>
       <c r="N95" s="33"/>
-      <c r="O95" s="31"/>
+      <c r="O95" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="P95" s="32"/>
       <c r="Q95" s="32"/>
       <c r="R95" s="32"/>
@@ -7505,7 +7699,9 @@
       <c r="AJ95" s="32"/>
       <c r="AK95" s="32"/>
       <c r="AL95" s="33"/>
-      <c r="AM95" s="37"/>
+      <c r="AM95" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="AN95" s="38"/>
       <c r="AO95" s="38"/>
     </row>
@@ -8611,168 +8807,196 @@
     <mergeCell ref="C105:N106"/>
   </mergeCells>
   <conditionalFormatting sqref="AM37:AO50">
-    <cfRule type="containsText" dxfId="54" priority="49" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="62" priority="57" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="59" priority="70" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:AO8">
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Suspend">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="56" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM73:AO114">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="未执行">
+  <conditionalFormatting sqref="AM97:AO114 AM73:AO78">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM53:AO58">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM63:AO64">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM67:AO68">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM69:AO70">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM51:AO52">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM59:AO60">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM61:AO62">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM71:AO72">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM65:AO66">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM65)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",AM65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM79:AO80">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="未执行">
+      <formula>NOT(ISERROR(SEARCH("未执行",AM79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="挂起">
+      <formula>NOT(ISERROR(SEARCH("挂起",AM79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",AM79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",AM79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM81:AO96">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="未执行">
+      <formula>NOT(ISERROR(SEARCH("未执行",AM81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="挂起">
+      <formula>NOT(ISERROR(SEARCH("挂起",AM81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",AM81)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",AM65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",AM81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -8791,13 +9015,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:AE5" xr:uid="{66CBB1D1-0ACA-47F9-A4C7-CC1D8F811F1A}">
       <formula1>"UI,图元操作,加工,Demo,下位机,通信连接,安全,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM73:AO114" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM73:AO78 AM97:AO114" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
       <formula1>"Pass,Fail,非执行,挂起"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:AO8" xr:uid="{50BC0DCA-D6B6-4DD1-AAFE-A220C75C0306}">
       <formula1>"Pass,Fail,Suspend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AO72" xr:uid="{ED1A11F7-52FD-49FE-8AFD-C898C547501E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AO72 AM79:AO96" xr:uid="{ED1A11F7-52FD-49FE-8AFD-C898C547501E}">
       <formula1>"Pass,Fail,未执行,挂起"</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/testing/2021-11-27-01/T000021图层面板测试.xlsx
+++ b/docs/testing/2021-11-27-01/T000021图层面板测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B1516-B9C2-4ADF-AE6D-B884AD074031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5F458-FF78-4D09-A7DC-704C4BBCE1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -3511,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AM95" sqref="AM95:AO96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AA55" sqref="AA55:AL56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
